--- a/biology/Botanique/Forêt_de_Dourdan/Forêt_de_Dourdan.xlsx
+++ b/biology/Botanique/Forêt_de_Dourdan/Forêt_de_Dourdan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Dourdan</t>
+          <t>Forêt_de_Dourdan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Dourdan est une forêt domaniale gérée par l'ONF, située dans les départements de l’Essonne et des Yvelines et la région Île-de-France à quarante kilomètres au sud-ouest de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Dourdan</t>
+          <t>Forêt_de_Dourdan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,12 @@
           <t>Géographie physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Dourdan s'étend sur 1 582 hectares à l'extrémité sud-ouest du territoire du Hurepoix, sur les coteaux de la vallée de l'Orge. Elle se compose de la forêt de Saint-Arnoult au nord et de la forêt de l'Ouÿe au sud séparées par la vallée de l'Orge et la forêt communale de Dourdan.
 L'ensemble est situé à l'extrémité nord-est du plateau de la Beauce.
-Géologie
-Les zones situées en fond de vallée, ainsi que les plateaux sont constitués de sols argileux où poussent essentiellement des feuillus.
-Les pentes, plus sablonneuses, laissent la place aux pins[1].
 </t>
         </is>
       </c>
@@ -529,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Dourdan</t>
+          <t>Forêt_de_Dourdan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,24 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Faune et flore</t>
+          <t>Géographie physique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flore
-Arbres
-Le chêne est la principale essence de la forêt ; à certains endroits sablonneux il est remplacé par des pins.
-On y trouve également châtaigniers, frênes, hêtres, bouleaux et charmes[2] ainsi qu'une dizaine de cormiers[3].
-La forêt de Dourdan abrite un certain nombre de chênes pluricentenaires, notamment le « chêne de l'Ouÿe » (170 ans), le « chêne Marie Poussepin » (170 ans), le « chêne aux loups » (250 ans), le « chêne Saint Louis », le « chêne du Breton »[Note 1],[Note 2],[4].
-Mais le plus remarquable d'entre eux est sans doute le « chêne des Six Frères », gigantesque chêne rouvre âgé de 500 ans, possédant un énorme tronc de 6,70 m de circonférence et dominant la forêt du haut de ses 33 m. Il est ainsi dénommé car sa souche (la cépée, issue d'un unique gland) se divise en six troncs, ce qui est extrêmement rare. Ce chêne fut un lieu de pèlerinage et de procession car au centre de l’arbre existe une cuvette presque toujours remplie d’une eau que l’on dit bénite[5].
-Champignons
-Les principales espèces de champignons répertoriées sont : Botryobasidium conspersum, Cortinarius cinnamomeolutea var. porphyreovelatus, huronensis, uliginobtusus, uliginosus, Hymenochaete tabacina, Inocybe flavella, Lachnum impudicum, Psathyrella sphagnicola, Psilocybe crobula, Ramaria flavescens, Trechispora praefocata[6].
-Faune
-La forêt abrite différents gibiers : cerfs, chevreuils, sangliers.
-On y trouve également d'autres mammifères tels que l’écureuil, le blaireau, le hérisson ou  des chauves-souris.
-On compte une soixantaine d’espèces d’oiseaux vivant dans la forêt. Certains y vivent toute l'année, comme le rouge-gorge. D’autres n'y font qu'un passage saisonnier, comme le coucou durant les beaux jours, ou la grive mauvis l'hiver.
-Les chants que l'on peut entendre sont principalement le fait des mésanges et des pouillots. Quant aux martèlements, ils sont le fait de quatre espèces de pics : Pic vert, Pic noir, Pic épeiche, Pic mar[2].
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zones situées en fond de vallée, ainsi que les plateaux sont constitués de sols argileux où poussent essentiellement des feuillus.
+Les pentes, plus sablonneuses, laissent la place aux pins.
 </t>
         </is>
       </c>
@@ -572,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Dourdan</t>
+          <t>Forêt_de_Dourdan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +593,139 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Faune et flore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chêne est la principale essence de la forêt ; à certains endroits sablonneux il est remplacé par des pins.
+On y trouve également châtaigniers, frênes, hêtres, bouleaux et charmes ainsi qu'une dizaine de cormiers.
+La forêt de Dourdan abrite un certain nombre de chênes pluricentenaires, notamment le « chêne de l'Ouÿe » (170 ans), le « chêne Marie Poussepin » (170 ans), le « chêne aux loups » (250 ans), le « chêne Saint Louis », le « chêne du Breton »[Note 1],[Note 2],.
+Mais le plus remarquable d'entre eux est sans doute le « chêne des Six Frères », gigantesque chêne rouvre âgé de 500 ans, possédant un énorme tronc de 6,70 m de circonférence et dominant la forêt du haut de ses 33 m. Il est ainsi dénommé car sa souche (la cépée, issue d'un unique gland) se divise en six troncs, ce qui est extrêmement rare. Ce chêne fut un lieu de pèlerinage et de procession car au centre de l’arbre existe une cuvette presque toujours remplie d’une eau que l’on dit bénite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Faune et flore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales espèces de champignons répertoriées sont : Botryobasidium conspersum, Cortinarius cinnamomeolutea var. porphyreovelatus, huronensis, uliginobtusus, uliginosus, Hymenochaete tabacina, Inocybe flavella, Lachnum impudicum, Psathyrella sphagnicola, Psilocybe crobula, Ramaria flavescens, Trechispora praefocata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune et flore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt abrite différents gibiers : cerfs, chevreuils, sangliers.
+On y trouve également d'autres mammifères tels que l’écureuil, le blaireau, le hérisson ou  des chauves-souris.
+On compte une soixantaine d’espèces d’oiseaux vivant dans la forêt. Certains y vivent toute l'année, comme le rouge-gorge. D’autres n'y font qu'un passage saisonnier, comme le coucou durant les beaux jours, ou la grive mauvis l'hiver.
+Les chants que l'on peut entendre sont principalement le fait des mésanges et des pouillots. Quant aux martèlements, ils sont le fait de quatre espèces de pics : Pic vert, Pic noir, Pic épeiche, Pic mar.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès les Mérovingiens, ces massifs appartiennent au domaine royal. La forêt de l’Ouÿe doit son nom à l’abbaye fondée en 1163 par Louis le Pieux[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès les Mérovingiens, ces massifs appartiennent au domaine royal. La forêt de l’Ouÿe doit son nom à l’abbaye fondée en 1163 par Louis le Pieux.
 Philippe Auguste révoque la donation faite par son père mais Saint Louis rendit le domaine aux religieuses qui le conservèrent jusqu’à la Révolution.
 Le reste de la forêt fut souvent donné en apanage à des princes de sang. Louis XIV l’octroya à son frère Philippe d’Orléans. Elle est restée dans la famille d’Orléans jusqu’à la Révolution.
 En 1870, la forêt jusqu'alors propriété des seigneurs locaux revint définitivement à l'État.
@@ -601,62 +734,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Dourdan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Dourdan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Lieux remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle accueille dans sa partie sud l'abbaye Notre-Dame de l'Ouÿe fondée en 1163.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Dourdan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_Dourdan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Dourdan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Géographie administrative</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt s'étend sur le territoire des communes essonniennes de Dourdan, Les Granges-le-Roi et Corbreuse et des communes yvelinoises de Sainte-Mesme et Saint-Arnoult-en-Yvelines.
 La forêt est traversée par les sentiers de grande randonnée GR 1 et GR 111 ainsi que de nombreux sentiers balisés tant pour la randonnée pédestre que pour l'équitation.
